--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value302.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value302.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.35436634645264</v>
+        <v>0.8207950592041016</v>
       </c>
       <c r="B1">
-        <v>1.382480965070886</v>
+        <v>1.284064769744873</v>
       </c>
       <c r="C1">
-        <v>1.501629305065445</v>
+        <v>2.68292498588562</v>
       </c>
       <c r="D1">
-        <v>2.164310244452384</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>2.870096253127023</v>
+        <v>1.659247398376465</v>
       </c>
     </row>
   </sheetData>
